--- a/escolas/todos.xlsx
+++ b/escolas/todos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limaamaro\Desktop\ACTTEENS\Automatização\escolas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\ACTTEENS\Automatização\escolas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DC8FD5-33B4-4205-980A-EDBC0F6115D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11205C52-8BDF-4F68-B1D7-86A033009574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t>Aluno</t>
   </si>
@@ -36,7 +36,1045 @@
     <t>Número responsável</t>
   </si>
   <si>
+    <t>Maria Vitória Serafim Barbosa</t>
+  </si>
+  <si>
+    <t>Mariana Ferreira de Souza</t>
+  </si>
+  <si>
+    <t>Mateus Cunha</t>
+  </si>
+  <si>
+    <t>Mirelly Pires Angelo</t>
+  </si>
+  <si>
+    <t>Natã Augusto Duarte</t>
+  </si>
+  <si>
+    <t>Nicolly Teodoro</t>
+  </si>
+  <si>
+    <t>Nilton Cesar Rosa Junior</t>
+  </si>
+  <si>
+    <t>Penellope Yasmin Campos</t>
+  </si>
+  <si>
+    <t>Rodolpho Camilo Ramos Couto</t>
+  </si>
+  <si>
+    <t>Ruan Paulo Lopes da Silva</t>
+  </si>
+  <si>
+    <t>Vitor Ademar Bueno</t>
+  </si>
+  <si>
+    <t>Vitor Gabriel Bilches da Silva</t>
+  </si>
+  <si>
+    <t>Wellington Argoso Daniel</t>
+  </si>
+  <si>
+    <t>Wesley de Souza Soares</t>
+  </si>
+  <si>
+    <t>Ana Beatriz Pereira Gois</t>
+  </si>
+  <si>
+    <t>Ana Julia Araújo</t>
+  </si>
+  <si>
+    <t>Ana Livia Correa da Silva</t>
+  </si>
+  <si>
+    <t>Ana Lívia Estevo dos Santos</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo Souza de Oliveira</t>
+  </si>
+  <si>
+    <t>Clara Luisa Correia Flores</t>
+  </si>
+  <si>
+    <t>Eduardo Vinicíus Ribeiro Lima</t>
+  </si>
+  <si>
+    <t>Felipe Ribeiro dos Santos</t>
+  </si>
+  <si>
+    <t>Guilherme Monteiro Braga</t>
+  </si>
+  <si>
+    <t>Higor de Souza</t>
+  </si>
+  <si>
+    <t>Isabel Emanuely Carneiro</t>
+  </si>
+  <si>
+    <t>Jayson Vinicius de Paula Bueno</t>
+  </si>
+  <si>
+    <t>João Lucas Leonardo de Souza</t>
+  </si>
+  <si>
+    <t>João Mauricio Nogueira da Silva</t>
+  </si>
+  <si>
+    <t>João Vinicius Bento Soares</t>
+  </si>
+  <si>
+    <t>Juan Angelo da Silva Natal</t>
+  </si>
+  <si>
+    <t>Kauan Vinicius</t>
+  </si>
+  <si>
+    <t>Kauê Domingues de Sousa</t>
+  </si>
+  <si>
+    <t>Lana Pietra Moreira</t>
+  </si>
+  <si>
+    <t>Luiz Felipe Alves</t>
+  </si>
+  <si>
+    <t>Luiz Fernando Silveira Filho</t>
+  </si>
+  <si>
+    <t>Luiz Guilherme Gonçalves Brandão</t>
+  </si>
+  <si>
+    <t>Patricia de Moraes P. Tadeu</t>
+  </si>
+  <si>
+    <t>Paulo Cesar da Silva</t>
+  </si>
+  <si>
+    <t>Paulo Ricardo Camargo</t>
+  </si>
+  <si>
+    <t>Sarah Gabrielly S. Ferreira</t>
+  </si>
+  <si>
+    <t>Sthefany Caroline Cesario dos Santos</t>
+  </si>
+  <si>
+    <t>Vitor Gabriel Marcelino Pereira</t>
+  </si>
+  <si>
+    <t>Alexandre Andrade Paulo</t>
+  </si>
+  <si>
+    <t>Anna Livia Pinheiro Crepaldi</t>
+  </si>
+  <si>
+    <t>Anna Luyza Barbosa Lourenço</t>
+  </si>
+  <si>
+    <t>Ary Ricardo Neto</t>
+  </si>
+  <si>
+    <t>Bianca Rafaele da Silva</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo Cerqueira</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo de Assis Lima</t>
+  </si>
+  <si>
+    <t>Guilherme Augusto de Souza</t>
+  </si>
+  <si>
+    <t>Guilherme Gomes Martins</t>
+  </si>
+  <si>
+    <t>Isabelle Naiomy Alves</t>
+  </si>
+  <si>
+    <t>João Gabriel Nascimento e Garcia</t>
+  </si>
+  <si>
+    <t>João Lucas Souza Ribeiro da Silva</t>
+  </si>
+  <si>
+    <t>José Cristian Conde da Silva</t>
+  </si>
+  <si>
+    <t>Kauan Wyctor de Paula Souza</t>
+  </si>
+  <si>
+    <t>Kleiton Santos Tenorio da Silva</t>
+  </si>
+  <si>
+    <t>Laura Fernandes Cezario</t>
+  </si>
+  <si>
+    <t>Luiz Augusto dos Santos Soares</t>
+  </si>
+  <si>
+    <t>Luiz Fernando Souza</t>
+  </si>
+  <si>
+    <t>Mauricio de Souza</t>
+  </si>
+  <si>
+    <t>Paulo Cesar F. Felizardo</t>
+  </si>
+  <si>
+    <t>Rebeca Heloise R. M. da Silva</t>
+  </si>
+  <si>
+    <t>Sthéfani Ribeiro da Cruz</t>
+  </si>
+  <si>
+    <t>Yasmin Fernanda Pires dos Reis</t>
+  </si>
+  <si>
+    <t>Amauri da Silva Lopes</t>
+  </si>
+  <si>
+    <t>Ana Vitoria Ventura da Silva</t>
+  </si>
+  <si>
+    <t>Aryella Ramos de Souza</t>
+  </si>
+  <si>
+    <t>Bruno Nicolas da Silva</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo Pereira da Silva</t>
+  </si>
+  <si>
+    <t>Emilly Emanuele dos Santos Ribeiro</t>
+  </si>
+  <si>
+    <t>Felipe da Silva Rodrigues</t>
+  </si>
+  <si>
+    <t>Gabriela das Graças Barbosa</t>
+  </si>
+  <si>
+    <t>Gabriele Cristina de O. Jesuino</t>
+  </si>
+  <si>
+    <t>Gabriely de Souza dos Reis</t>
+  </si>
+  <si>
+    <t>Izabele Daiane</t>
+  </si>
+  <si>
+    <t>João Victor Santana de Medeiros</t>
+  </si>
+  <si>
+    <t>José Henrique Ramos</t>
+  </si>
+  <si>
+    <t>Kaike de Jesus de Paula Ferreira</t>
+  </si>
+  <si>
+    <t>Kaua Aparecido Nogueira</t>
+  </si>
+  <si>
+    <t>Kauanny Vitoria de Oliveira Balbino</t>
+  </si>
+  <si>
+    <t>Kayo Vinicius Pelaquim da Matta</t>
+  </si>
+  <si>
+    <t>Luzia das Graças de Oliveira</t>
+  </si>
+  <si>
+    <t>Maria Clara Leite de Souza</t>
+  </si>
+  <si>
+    <t>Maria Eduarda de Oliveira Porto Simões</t>
+  </si>
+  <si>
+    <t>Matheus Henrique Alvez Rodrigues</t>
+  </si>
+  <si>
+    <t>Meiryele Dias Rodrigues</t>
+  </si>
+  <si>
+    <t>Nycolas Gabriel Luiz</t>
+  </si>
+  <si>
+    <t>Rayssa Oliveira da Silva</t>
+  </si>
+  <si>
+    <t>Roberta Ribeiro Peró Borba</t>
+  </si>
+  <si>
+    <t>Thainá Pereira de Souza</t>
+  </si>
+  <si>
+    <t>Thamyres Rodrigues Felipe</t>
+  </si>
+  <si>
+    <t>Victor Augusto Golçaves</t>
+  </si>
+  <si>
+    <t>Vinicius Demetrio Alves</t>
+  </si>
+  <si>
+    <t>Walysom Henrique de Oliveira Demetrio</t>
+  </si>
+  <si>
+    <t>Welkie Rodrigues Teixeira</t>
+  </si>
+  <si>
+    <t>Adriano Gonçalves Santos Junior</t>
+  </si>
+  <si>
+    <t>Ana Julia Benck</t>
+  </si>
+  <si>
+    <t>Ana Júlia Gonçalves da Cruz</t>
+  </si>
+  <si>
+    <t>Ana Julia Kodama Pereira</t>
+  </si>
+  <si>
+    <t>Gabriel de Abreu</t>
+  </si>
+  <si>
+    <t>Gabriela de Oliveira</t>
+  </si>
+  <si>
+    <t>Gabrieli Maria Cardoso</t>
+  </si>
+  <si>
+    <t>Giovanna dos Santos Golçalves Araujo</t>
+  </si>
+  <si>
+    <t>Igor Gaspar Martins</t>
+  </si>
+  <si>
+    <t>Izadora Klochi Mite Breganholi</t>
+  </si>
+  <si>
+    <t>João Guilherme C</t>
+  </si>
+  <si>
+    <t>Kauan Alves Pracidelli</t>
+  </si>
+  <si>
+    <t>Kayque Henrique Vasconcello de M</t>
+  </si>
+  <si>
+    <t>Lucas Daniel de Almeida Rodrigues</t>
+  </si>
+  <si>
+    <t>Lucas Gabriel Domingues</t>
+  </si>
+  <si>
+    <t>Luiz Augusto Souza T. Gomes</t>
+  </si>
+  <si>
+    <t>Maria Eduarda de Souza da Silva</t>
+  </si>
+  <si>
+    <t>Maria Vitória Candido Cardoso</t>
+  </si>
+  <si>
+    <t>Mariane Lopes Soares</t>
+  </si>
+  <si>
+    <t>Marilya Gabriela da Silveira Pacheco</t>
+  </si>
+  <si>
+    <t>Matheus Balbino Maria</t>
+  </si>
+  <si>
+    <t>Miguel Araujo</t>
+  </si>
+  <si>
+    <t>Miriã Vitória Zanatta</t>
+  </si>
+  <si>
+    <t>Thayná de Oliveira Garcia</t>
+  </si>
+  <si>
+    <t>Tiago Emanuel de O.</t>
+  </si>
+  <si>
+    <t>Vitor Angel Rafael Caciatori de Abreu</t>
+  </si>
+  <si>
+    <t>Vitor Cesar Fogaça T.</t>
+  </si>
+  <si>
+    <t>Yasmin Vitória da Silva Ribeiro</t>
+  </si>
+  <si>
+    <t>Ana Clara de Oliveira Brescansin</t>
+  </si>
+  <si>
+    <t>Ana Julia da Silva</t>
+  </si>
+  <si>
+    <t>Ana Karolina Vieira Silveira</t>
+  </si>
+  <si>
+    <t>Andrey Felipe dos Santos</t>
+  </si>
+  <si>
+    <t>Eloise Naiara G. da Silva</t>
+  </si>
+  <si>
+    <t>Emanuela Paim da Silva</t>
+  </si>
+  <si>
+    <t>Emily Pereira Rado Coelho</t>
+  </si>
+  <si>
+    <t>Flávio Henrique da Silva Ribeiro</t>
+  </si>
+  <si>
+    <t>Guilherme Milanesi</t>
+  </si>
+  <si>
+    <t>Gustavo Henrique Silva dos Santos</t>
+  </si>
+  <si>
+    <t>João Lucas Agostinho da Silva</t>
+  </si>
+  <si>
+    <t>Julia Santos de Almeida</t>
+  </si>
+  <si>
+    <t>Kayron Silva Soares</t>
+  </si>
+  <si>
+    <t>Laura Lucchese Boccia de Lima</t>
+  </si>
+  <si>
+    <t>Leandro Júnior de Souza Silva</t>
+  </si>
+  <si>
+    <t>Lucas Felipe Delsasso de Oliveira</t>
+  </si>
+  <si>
+    <t>Lucas Ramos</t>
+  </si>
+  <si>
+    <t>Madelayne Quintiliano de Melo</t>
+  </si>
+  <si>
+    <t>Maria Clara Mafra da Silva</t>
+  </si>
+  <si>
+    <t>Maria das Graças Paim da Silva</t>
+  </si>
+  <si>
+    <t>Maria Vitória Aparecida Lemes</t>
+  </si>
+  <si>
+    <t>Maria Vitória dos S Cardoso</t>
+  </si>
+  <si>
+    <t>Miguel Pimenta Araujo</t>
+  </si>
+  <si>
+    <t>Natalia Pereira da Silva</t>
+  </si>
+  <si>
+    <t>Natan de Lima Vieira da Silva</t>
+  </si>
+  <si>
+    <t>Paulo Victor Casa Grande Fonseca</t>
+  </si>
+  <si>
+    <t>Raissa Cristine Aparecida Lopes</t>
+  </si>
+  <si>
+    <t>Stefany Ribeiro</t>
+  </si>
+  <si>
+    <t>Tábata Vitória</t>
+  </si>
+  <si>
+    <t>Thaynara Cristina Alves Ferreira</t>
+  </si>
+  <si>
+    <t>Victor Daniel de Alcantara</t>
+  </si>
+  <si>
+    <t>Amanda da Silva</t>
+  </si>
+  <si>
+    <t>Amanda Evelyn Lopes D. Pimentel</t>
+  </si>
+  <si>
+    <t>Ana Beatriz Faustino</t>
+  </si>
+  <si>
+    <t>Ana Beatriz Jacob</t>
+  </si>
+  <si>
+    <t>Ana Julia Ramos Rocha</t>
+  </si>
+  <si>
+    <t>Ana Vitória</t>
+  </si>
+  <si>
+    <t>Andressa Martins Chagas</t>
+  </si>
+  <si>
+    <t>Daniel Veiga</t>
+  </si>
+  <si>
+    <t>Eduardo F. Gonçalves</t>
+  </si>
+  <si>
+    <t>Emanuelle Lopes Cabral</t>
+  </si>
+  <si>
+    <t>Emmanuelly Soares Faria</t>
+  </si>
+  <si>
+    <t>Felipe Adão dos Santos Coimbra</t>
+  </si>
+  <si>
+    <t>Gabriel Oliveira</t>
+  </si>
+  <si>
+    <t>Gian Rodrigues</t>
+  </si>
+  <si>
+    <t>Guilherme Gomes Bassinelo</t>
+  </si>
+  <si>
+    <t>Gustavo Fernando</t>
+  </si>
+  <si>
+    <t>Hayssa Grandelini dos Santos</t>
+  </si>
+  <si>
+    <t>João Pedro Jovanaci</t>
+  </si>
+  <si>
+    <t>João Vitor Goulart Montanholi</t>
+  </si>
+  <si>
+    <t>Larissa Burani</t>
+  </si>
+  <si>
+    <t>Laura Antonio Ferreira da Silva</t>
+  </si>
+  <si>
+    <t>Lavinia Tomaz dos Santos Teodoro</t>
+  </si>
+  <si>
+    <t>Luiz Carlos Motta</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Silva de Carvalho</t>
+  </si>
+  <si>
+    <t>Maria Vitória Oliveira</t>
+  </si>
+  <si>
+    <t>Matheus Henrique Libano</t>
+  </si>
+  <si>
+    <t>Nicole dos Santos Oliveira</t>
+  </si>
+  <si>
+    <t>Pedro Henrique Bernardo</t>
+  </si>
+  <si>
+    <t>Ryan Henrique Martins Campos</t>
+  </si>
+  <si>
+    <t>Sarah Ferreira Crepaldi</t>
+  </si>
+  <si>
+    <t>Thaiany Gabrielly dos Santos</t>
+  </si>
+  <si>
+    <t>Thalia Nicoly</t>
+  </si>
+  <si>
+    <t>Wesley Felipe Deziderio Soares</t>
+  </si>
+  <si>
+    <t>Wictorya Emanuelly Pereira Santiago</t>
+  </si>
+  <si>
     <t>Gabriel Lima</t>
+  </si>
+  <si>
+    <t>Antonio ADM</t>
+  </si>
+  <si>
+    <t>Pedro ADM</t>
+  </si>
+  <si>
+    <t>Gian Pedro Duarte da Silva</t>
+  </si>
+  <si>
+    <t>Gustavo Henrique de Arantes</t>
+  </si>
+  <si>
+    <t>Heloá Carapina Torres</t>
+  </si>
+  <si>
+    <t>Isabelly Vitoria Godoi</t>
+  </si>
+  <si>
+    <t>João Gabriel Guiotti Pinto</t>
+  </si>
+  <si>
+    <t>João Gabriel Lavorato da Silva</t>
+  </si>
+  <si>
+    <t>João Pedro Torres Leopoldino</t>
+  </si>
+  <si>
+    <t>João Vitor Guedes da Cruz</t>
+  </si>
+  <si>
+    <t>João Vitor Souza Pires</t>
+  </si>
+  <si>
+    <t>Juan Barreto de Freitas</t>
+  </si>
+  <si>
+    <t>Lavinia Borges Consolin</t>
+  </si>
+  <si>
+    <t>Livia Tanferre</t>
+  </si>
+  <si>
+    <t>Luiz Gabriel Diniz</t>
+  </si>
+  <si>
+    <t>Maria Amalia Alves dos Santos</t>
+  </si>
+  <si>
+    <t>Maria Beatriz da Silveira</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Amaro Lima</t>
+  </si>
+  <si>
+    <t>Maria Emanuelle de Souza Madeira</t>
+  </si>
+  <si>
+    <t>Natalia Marchioni dos Santos</t>
+  </si>
+  <si>
+    <t>Nathalya Pereira dos Santos</t>
+  </si>
+  <si>
+    <t>Nelson Gabriel Pereira da Silva</t>
+  </si>
+  <si>
+    <t>Pedro Henrique Delsasso</t>
+  </si>
+  <si>
+    <t>Rafael Silva Lomba</t>
+  </si>
+  <si>
+    <t>Vanessa Gonçalves Zorzi</t>
+  </si>
+  <si>
+    <t>Ana Julia Corrêa</t>
+  </si>
+  <si>
+    <t>Antonio Messias de Camargo Neto</t>
+  </si>
+  <si>
+    <t>Arthur Henrique de Castro</t>
+  </si>
+  <si>
+    <t>Davi Nogari</t>
+  </si>
+  <si>
+    <t>David Gabriel Souza Felix</t>
+  </si>
+  <si>
+    <t>Eduarda Gabriely Vieira de Lima</t>
+  </si>
+  <si>
+    <t>Fabiana Leite Hanzé</t>
+  </si>
+  <si>
+    <t>Gabriel dos Santos Silva</t>
+  </si>
+  <si>
+    <t>Gabriel dos Santos Souza</t>
+  </si>
+  <si>
+    <t>Gabrielly Teles Barbosa</t>
+  </si>
+  <si>
+    <t>Geovanna Antunes Schulty</t>
+  </si>
+  <si>
+    <t>Guilherme Nogueira de Andrade</t>
+  </si>
+  <si>
+    <t>Gustavo Lima dos Santos</t>
+  </si>
+  <si>
+    <t>João Gabriel Bueno Varoto</t>
+  </si>
+  <si>
+    <t>Kaylayne V. Souza Rodrigues</t>
+  </si>
+  <si>
+    <t>Lucas Almeida dos Santos</t>
+  </si>
+  <si>
+    <t>Luisa Mariano Weckerlin</t>
+  </si>
+  <si>
+    <t>Maria Gabrielly Procópio Adriano</t>
+  </si>
+  <si>
+    <t>Paulo Vitor Nunes de Souza</t>
+  </si>
+  <si>
+    <t>Pedro Henrique dos Santos</t>
+  </si>
+  <si>
+    <t>Pedro Lucas Pereira de Souza</t>
+  </si>
+  <si>
+    <t>Vitória J. B. Rodrigues</t>
+  </si>
+  <si>
+    <t>Yasmin Fernanda Arantes de Oliveira</t>
+  </si>
+  <si>
+    <t>Yuri Gustavo Ramos</t>
+  </si>
+  <si>
+    <t>Yuri Junqueira Campos</t>
+  </si>
+  <si>
+    <t>Ademilson Calegari Junior</t>
+  </si>
+  <si>
+    <t>Ana Livia Melchior</t>
+  </si>
+  <si>
+    <t>Any Gabrielle Bueno Varoto</t>
+  </si>
+  <si>
+    <t>Bárbara Gabriel</t>
+  </si>
+  <si>
+    <t>Beatriz Cezário Alves</t>
+  </si>
+  <si>
+    <t>Bruno Henrique Antunes</t>
+  </si>
+  <si>
+    <t>Gabriel Spiacci Barbosa Zanchin</t>
+  </si>
+  <si>
+    <t>Gabriely Tanferre</t>
+  </si>
+  <si>
+    <t>Geovany Augusto Gonçalves Delamura</t>
+  </si>
+  <si>
+    <t>Guilherme B. Alves</t>
+  </si>
+  <si>
+    <t>Guilherme Joaquim Grimes Gonçalves</t>
+  </si>
+  <si>
+    <t>Heitor Antonio Pinto Silva</t>
+  </si>
+  <si>
+    <t>Hícaro Edmundo de Lima</t>
+  </si>
+  <si>
+    <t>Isabele Vitória de Souza Nunes</t>
+  </si>
+  <si>
+    <t>João Arthur Landoski</t>
+  </si>
+  <si>
+    <t>José Pedro Vieira</t>
+  </si>
+  <si>
+    <t>Kauanny Torres</t>
+  </si>
+  <si>
+    <t>Letícia de Lima Avellar</t>
+  </si>
+  <si>
+    <t>Lucas de Souza Galerani</t>
+  </si>
+  <si>
+    <t>Lucas Gabriel Ferreira Barbosa</t>
+  </si>
+  <si>
+    <t>Luíz Otávio Ferreira</t>
+  </si>
+  <si>
+    <t>Marcela Chueiri do Nascimento</t>
+  </si>
+  <si>
+    <t>Maria Gabriela Ciriaco</t>
+  </si>
+  <si>
+    <t>Maria Lara Silva</t>
+  </si>
+  <si>
+    <t>Matheus Kakimori Cândido Garcia</t>
+  </si>
+  <si>
+    <t>Miguel da Silva Domingues</t>
+  </si>
+  <si>
+    <t>Natália Aparecida de Oliveira Souza</t>
+  </si>
+  <si>
+    <t>Nathaly Vitória Santos de Oliveira</t>
+  </si>
+  <si>
+    <t>Nathan Teodoro Miguel</t>
+  </si>
+  <si>
+    <t>Otávio Augusto de Oliveira Barboza</t>
+  </si>
+  <si>
+    <t>Otávio Gabriel Marchioni Rodrigues</t>
+  </si>
+  <si>
+    <t>Pedro Henrique Marçal Ribeiro</t>
+  </si>
+  <si>
+    <t>Raquel Carvalho de Lima</t>
+  </si>
+  <si>
+    <t>Valdeci Victor Capelare Mello</t>
+  </si>
+  <si>
+    <t>Vitor Royce Jacob Duarte Ramos</t>
+  </si>
+  <si>
+    <t>Ana Clara Marques de Oliveira</t>
+  </si>
+  <si>
+    <t>Ana Gabrielly Marchioni</t>
+  </si>
+  <si>
+    <t>Ana Luiza Pini de Lima</t>
+  </si>
+  <si>
+    <t>Andrey Monteiro Diniz</t>
+  </si>
+  <si>
+    <t>Caio Monteiro Santana</t>
+  </si>
+  <si>
+    <t>Camila Rezende de Paula Sandra</t>
+  </si>
+  <si>
+    <t>Carlos Eduardo dos Santos M</t>
+  </si>
+  <si>
+    <t>Débora Calisto Gouvêia</t>
+  </si>
+  <si>
+    <t>Deivid Júnior dos Santos Barbosa</t>
+  </si>
+  <si>
+    <t>Emanuelle Chaves</t>
+  </si>
+  <si>
+    <t>Felipe Candido Aureliano Onorato</t>
+  </si>
+  <si>
+    <t>Felipe Martini Fuzati</t>
+  </si>
+  <si>
+    <t>Gustavo José de Oliveira</t>
+  </si>
+  <si>
+    <t>Hillary Oliveira de Melo</t>
+  </si>
+  <si>
+    <t>Hugo Daniel da Silva Abreu</t>
+  </si>
+  <si>
+    <t>Janaina O. C. da Silva</t>
+  </si>
+  <si>
+    <t>Leonardo R. Rusig</t>
+  </si>
+  <si>
+    <t>Marcella Lemes da Silva</t>
+  </si>
+  <si>
+    <t>Maria Clara de Camargo</t>
+  </si>
+  <si>
+    <t>Maria Vitória Lavorato</t>
+  </si>
+  <si>
+    <t>Mariana Golucho Batista</t>
+  </si>
+  <si>
+    <t>Mickaella A. Ferreira da Silva</t>
+  </si>
+  <si>
+    <t>Nicholly E. A. Lemes</t>
+  </si>
+  <si>
+    <t>Paola Alves de Paula</t>
+  </si>
+  <si>
+    <t>Pedro Henrique Moreira</t>
+  </si>
+  <si>
+    <t>Victor Gabriel Breganholi</t>
+  </si>
+  <si>
+    <t>Victor Hugo Rezende Santos</t>
+  </si>
+  <si>
+    <t>Amanda Campanholi de Lima</t>
+  </si>
+  <si>
+    <t>Ana Beatriz Santos Cardoso</t>
+  </si>
+  <si>
+    <t>Ana Carolina Resende de Oliveira</t>
+  </si>
+  <si>
+    <t>Ana Clara Correia de Oliveira</t>
+  </si>
+  <si>
+    <t>Ana Clara A. Machado</t>
+  </si>
+  <si>
+    <t>Cibelly Bernardo Martins</t>
+  </si>
+  <si>
+    <t>Diego Henrique de Oliveira</t>
+  </si>
+  <si>
+    <t>Ellen Mariane da Silva</t>
+  </si>
+  <si>
+    <t>Emily Isabely Velozo</t>
+  </si>
+  <si>
+    <t>Estefany Vitória Vilcher</t>
+  </si>
+  <si>
+    <t>Gabriel Alves Ribeiro</t>
+  </si>
+  <si>
+    <t>Gabriel das Neves Gonçalves</t>
+  </si>
+  <si>
+    <t>João Lucas Soares Pereira</t>
+  </si>
+  <si>
+    <t>Kayque Alcantara de Paula</t>
+  </si>
+  <si>
+    <t>Keirrison Bruno da Silva Nunes</t>
+  </si>
+  <si>
+    <t>Laiany de Oliveira</t>
+  </si>
+  <si>
+    <t>Luiz Fernando de Oliveira P</t>
+  </si>
+  <si>
+    <t>Maria Eduarda Pereira Macedo</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Eugênio</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Freitas de Oliveira</t>
+  </si>
+  <si>
+    <t>Maria Laura Soares Pinheiro</t>
+  </si>
+  <si>
+    <t>Nathalia Regina Sales</t>
+  </si>
+  <si>
+    <t>Nicolly Alves Nakamura</t>
+  </si>
+  <si>
+    <t>Ryan Rafael dos Santos</t>
+  </si>
+  <si>
+    <t>Samyla de Paula da Silva Farias</t>
+  </si>
+  <si>
+    <t>Thiago Henrique de Oliveira</t>
+  </si>
+  <si>
+    <t>Vitor Gabriel dos Santos</t>
+  </si>
+  <si>
+    <t>Vitor Lopes de Freitas</t>
+  </si>
+  <si>
+    <t>Volney Guilherme da Silva Camargo</t>
+  </si>
+  <si>
+    <t>Yasmim Clara dos Santos Gonzaga</t>
+  </si>
+  <si>
+    <t>Alberto Wagner Ramos Júnior</t>
+  </si>
+  <si>
+    <t>Ana Carolina Souza de Oliveira</t>
+  </si>
+  <si>
+    <t>Ana Clara Brito Ribeiro</t>
+  </si>
+  <si>
+    <t>Andreia Arruda Junqueira</t>
+  </si>
+  <si>
+    <t>Beatriz Aparecida dos Santos Silva</t>
+  </si>
+  <si>
+    <t>Eduardo Gabriel de Assis Souza</t>
+  </si>
+  <si>
+    <t>Emanuely Vitória Néia da Coisa</t>
+  </si>
+  <si>
+    <t>Gabrielle Nunes Gonçalves</t>
+  </si>
+  <si>
+    <t>Huan Carlos R. Thezi</t>
+  </si>
+  <si>
+    <t>José Henrique de Moraes</t>
+  </si>
+  <si>
+    <t>Kimberlly Fernando dos Santos</t>
+  </si>
+  <si>
+    <t>Livia Maria de Carvalho Sales</t>
+  </si>
+  <si>
+    <t>Lucas Calisto de Oliveira</t>
+  </si>
+  <si>
+    <t>Lucas Lopes</t>
+  </si>
+  <si>
+    <t>Luiz Guilherme Francisco Alecrim</t>
   </si>
 </sst>
 </file>
@@ -515,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F364"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -537,1739 +1575,3358 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="B2" s="3">
-        <v>5514997391223</v>
+        <v>5543984992522</v>
       </c>
       <c r="C2" s="3">
-        <v>5514997391223</v>
+        <v>5543991825230</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5543991856554</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5543991581876</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5543996256766</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5543996942136</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5543991970904</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5543991216042</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>5543988178657</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5543996532686</v>
+      </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5543998417021</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5543996212108</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5543984596548</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5543984530252</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3">
+        <v>5543999184610</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5543988552451</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5543998148878</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5543996597339</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5543988483413</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5543999753656</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5543996540489</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5543991484298</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5543991862221</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5543999694493</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5543991695157</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3">
+        <v>5543988052775</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5543998307941</v>
+      </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5543999320612</v>
+      </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5543991869497</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5543991563482</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="5">
+        <v>5543991308470</v>
+      </c>
+      <c r="C25" s="5">
+        <v>5543991271852</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B26" s="5">
+        <v>5543991081813</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5543997829154</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="A27" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="5">
+        <v>5543998759112</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5543998735200</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>5543996621486</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="5">
+        <v>5543991528566</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5543991424961</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="5">
+        <v>5543996124314</v>
+      </c>
+      <c r="C31" s="5">
+        <v>5543998617289</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
+      <c r="A32" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="5">
+        <v>5543991899318</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5543991966176</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="5">
+        <v>5543996726700</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5543991730244</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="A34" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="5">
+        <v>5543991148801</v>
+      </c>
+      <c r="C34" s="5">
+        <v>5543999129021</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
+      <c r="A35" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="5">
+        <v>5543988602500</v>
+      </c>
+      <c r="C35" s="5">
+        <v>5543988319445</v>
+      </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5">
+        <v>5543991216921</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="5">
+        <v>5543988395064</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5543998250127</v>
+      </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
+      <c r="C38" s="5">
+        <v>5543984335085</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="7">
+        <v>5543991573384</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5543991045853</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="A40" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="C40" s="5">
+        <v>5543999684589</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="5">
+        <v>5543984531510</v>
+      </c>
+      <c r="C41" s="5">
+        <v>5543984877449</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B42" s="5">
+        <v>5543996577743</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5543984941158</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+      <c r="A43" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="C44" s="5">
+        <v>5543999202409</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
+      <c r="A46" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5">
+        <v>5543996116178</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="5">
+        <v>5543996151724</v>
+      </c>
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="A48" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="5">
+        <v>5543984866512</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5543984242676</v>
+      </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="A49" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" s="5">
+        <v>5543984218715</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5543984449423</v>
+      </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
+      <c r="A50" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" s="9">
+        <v>5543996909718</v>
+      </c>
       <c r="C50" s="9"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="A51" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51" s="9">
+        <v>5543999619306</v>
+      </c>
+      <c r="C51" s="9">
+        <v>5543996427970</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="A52" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" s="9">
+        <v>5543998531983</v>
+      </c>
+      <c r="C52" s="9">
+        <v>5543998324708</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="8" t="s">
+        <v>246</v>
+      </c>
       <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
+      <c r="C53" s="9">
+        <v>5543996114605</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="8" t="s">
+        <v>247</v>
+      </c>
       <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+      <c r="C54" s="9">
+        <v>5543996679800</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
+      <c r="A55" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B55" s="9">
+        <v>5543996644913</v>
+      </c>
+      <c r="C55" s="9">
+        <v>5543998481589</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
+      <c r="A56" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" s="9">
+        <v>5543999100127</v>
+      </c>
+      <c r="C56" s="9">
+        <v>5543996037944</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
+      <c r="A57" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="9">
+        <v>5543999571886</v>
+      </c>
       <c r="C57" s="9"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
+      <c r="C58" s="9">
+        <v>5543984366712</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
+      <c r="A59" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" s="9">
+        <v>5543991574471</v>
+      </c>
+      <c r="C59" s="9">
+        <v>5543991422326</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="A60" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="10">
+        <v>5543999718931</v>
+      </c>
+      <c r="C60" s="10">
+        <v>5543996429158</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
+      <c r="A61" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B61" s="9">
+        <v>5543988123639</v>
+      </c>
+      <c r="C61" s="9">
+        <v>5543998097050</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="9"/>
+      <c r="A62" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="10">
+        <v>5543984064270</v>
+      </c>
+      <c r="C62" s="9">
+        <v>5543984062724</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
+      <c r="A63" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B63" s="9">
+        <v>5543999300558</v>
+      </c>
+      <c r="C63" s="9">
+        <v>5543984359234</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
+      <c r="A64" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64" s="9">
+        <v>5543988562377</v>
+      </c>
+      <c r="C64" s="9">
+        <v>5543996750294</v>
+      </c>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="8" t="s">
+        <v>258</v>
+      </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
+      <c r="C65" s="9">
+        <v>5543996146359</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="9"/>
+      <c r="A66" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B66" s="11">
+        <v>5543991911319</v>
+      </c>
+      <c r="C66" s="9">
+        <v>5543991044015</v>
+      </c>
     </row>
     <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
+      <c r="A67" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B67" s="9">
+        <v>5543999612895</v>
+      </c>
+      <c r="C67" s="9">
+        <v>5543999004346</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="8" t="s">
+        <v>261</v>
+      </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
+      <c r="A69" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" s="9">
+        <v>5543999733658</v>
+      </c>
+      <c r="C69" s="9">
+        <v>5543999628698</v>
+      </c>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
+      <c r="A70" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B70" s="9">
+        <v>5543998148372</v>
+      </c>
       <c r="C70" s="9"/>
     </row>
     <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
+      <c r="A71" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B71" s="9">
+        <v>5543988321624</v>
+      </c>
+      <c r="C71" s="9">
+        <v>5543996597157</v>
+      </c>
     </row>
     <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
+      <c r="A72" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B72" s="9">
+        <v>5543996611693</v>
+      </c>
+      <c r="C72" s="9">
+        <v>5543996917747</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
+      <c r="A73" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B73" s="9">
+        <v>5543991329778</v>
+      </c>
+      <c r="C73" s="9">
+        <v>5543991064671</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
+      <c r="A74" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B74" s="9">
+        <v>5543991711563</v>
+      </c>
+      <c r="C74" s="9">
+        <v>5543991097133</v>
+      </c>
     </row>
     <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
     </row>
     <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
+      <c r="A76" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B76" s="9">
+        <v>5543984861779</v>
+      </c>
+      <c r="C76" s="9">
+        <v>5543991777273</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
+      <c r="A77" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B77" s="9">
+        <v>5543984769251</v>
+      </c>
+      <c r="C77" s="9">
+        <v>5543996855465</v>
+      </c>
     </row>
     <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
+      <c r="A78" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" s="9">
+        <v>5543984829228</v>
+      </c>
+      <c r="C78" s="9">
+        <v>5543984185358</v>
+      </c>
     </row>
     <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
+      <c r="A79" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B79" s="9">
+        <v>5543998269407</v>
+      </c>
+      <c r="C79" s="9">
+        <v>5543996908332</v>
+      </c>
     </row>
     <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
+      <c r="A80" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B80" s="9">
+        <v>5543991285181</v>
+      </c>
+      <c r="C80" s="9">
+        <v>5543991510047</v>
+      </c>
     </row>
     <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
+      <c r="C81" s="9">
+        <v>5543996822531</v>
+      </c>
     </row>
     <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
+      <c r="A82" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" s="9">
+        <v>5543984772018</v>
+      </c>
+      <c r="C82" s="9">
+        <v>5543984778013</v>
+      </c>
     </row>
     <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
+      <c r="A83" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B83" s="9">
+        <v>5543984117038</v>
+      </c>
+      <c r="C83" s="9">
+        <v>5543984878421</v>
+      </c>
     </row>
     <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
+      <c r="A84" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B84" s="9">
+        <v>5543991389836</v>
+      </c>
+      <c r="C84" s="9">
+        <v>5543991174459</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+      <c r="A85" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
     </row>
     <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
+      <c r="A86" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" s="13">
+        <v>5543991337775</v>
+      </c>
+      <c r="C86" s="13">
+        <v>5543991571545</v>
+      </c>
     </row>
     <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
+      <c r="A87" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B87" s="13">
+        <v>5543984529065</v>
+      </c>
+      <c r="C87" s="13">
+        <v>5543984389392</v>
+      </c>
     </row>
     <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
+      <c r="A88" s="12" t="s">
+        <v>281</v>
+      </c>
       <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>5543984060684</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="13"/>
+      <c r="A89" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" s="14">
+        <v>5543988360529</v>
+      </c>
+      <c r="C89" s="13">
+        <v>5543988211018</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
+      <c r="A90" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B90" s="13">
+        <v>5543991514957</v>
+      </c>
+      <c r="C90" s="13">
+        <v>5543991284782</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
+      <c r="A91" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" s="13">
+        <v>5543999067943</v>
+      </c>
+      <c r="C91" s="13">
+        <v>5543991182946</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="13"/>
+      <c r="A92" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B92" s="14">
+        <v>5543991609701</v>
+      </c>
+      <c r="C92" s="13">
+        <v>5543991584272</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
+      <c r="A93" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B93" s="13">
+        <v>5543998677088</v>
+      </c>
+      <c r="C93" s="13">
+        <v>5543984247760</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
+      <c r="A94" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" s="13">
+        <v>5543988679475</v>
+      </c>
+      <c r="C94" s="13">
+        <v>5543988189987</v>
+      </c>
     </row>
     <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
+      <c r="A95" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B95" s="13">
+        <v>5543991971677</v>
+      </c>
+      <c r="C95" s="13">
+        <v>5543991686478</v>
+      </c>
     </row>
     <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
+      <c r="A96" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B96" s="13">
+        <v>5543999116362</v>
+      </c>
+      <c r="C96" s="13">
+        <v>5543998297734</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
+      <c r="A97" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B97" s="13">
+        <v>5543998058195</v>
+      </c>
+      <c r="C97" s="13">
+        <v>5543996635649</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
+      <c r="A98" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" s="13">
+        <v>5543996911597</v>
+      </c>
+      <c r="C98" s="13">
+        <v>5543999611823</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
+      <c r="A99" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" s="13">
+        <v>5543991970554</v>
+      </c>
+      <c r="C99" s="13">
+        <v>5543999618163</v>
+      </c>
     </row>
     <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+      <c r="A100" s="12" t="s">
+        <v>293</v>
+      </c>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
     </row>
     <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
+      <c r="A101" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B101" s="13">
+        <v>5543996949227</v>
+      </c>
+      <c r="C101" s="13">
+        <v>5543999761940</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
+      <c r="A102" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="13">
+        <v>5543991128478</v>
+      </c>
+      <c r="C102" s="13">
+        <v>5543991490504</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+      <c r="A103" s="12" t="s">
+        <v>296</v>
+      </c>
       <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
+      <c r="C103" s="13">
+        <v>5543999386579</v>
+      </c>
     </row>
     <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
+      <c r="A104" s="12" t="s">
+        <v>297</v>
+      </c>
       <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
+      <c r="C104" s="13">
+        <v>5543996040575</v>
+      </c>
     </row>
     <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="13"/>
+      <c r="A105" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B105" s="14">
+        <v>5543998310450</v>
+      </c>
+      <c r="C105" s="13">
+        <v>5543999861863</v>
+      </c>
     </row>
     <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
+      <c r="A106" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B106" s="13">
+        <v>5543998468440</v>
+      </c>
+      <c r="C106" s="13">
+        <v>5543996203879</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
+      <c r="A107" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" s="13">
+        <v>5543984530088</v>
+      </c>
+      <c r="C107" s="13">
+        <v>5543998476954</v>
+      </c>
     </row>
     <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
+      <c r="A108" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B108" s="13">
+        <v>5543998702584</v>
+      </c>
+      <c r="C108" s="13">
+        <v>5543996203879</v>
+      </c>
     </row>
     <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
+      <c r="A109" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B109" s="13">
+        <v>5543988601470</v>
+      </c>
+      <c r="C109" s="13">
+        <v>5543998112510</v>
+      </c>
     </row>
     <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
+      <c r="A110" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" s="13">
+        <v>5543998308859</v>
+      </c>
+      <c r="C110" s="13">
+        <v>5543996968976</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+      <c r="A111" s="12" t="s">
+        <v>304</v>
+      </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
     </row>
     <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B112" s="3">
+        <v>5543996626638</v>
+      </c>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B113" s="3">
+        <v>5543998057786</v>
+      </c>
+      <c r="C113" s="3">
+        <v>5543999280898</v>
+      </c>
     </row>
     <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B114" s="3">
+        <v>5543991308256</v>
+      </c>
+      <c r="C114" s="3">
+        <v>5543991274703</v>
+      </c>
     </row>
     <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="A115" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B115" s="3">
+        <v>5543991675244</v>
+      </c>
+      <c r="C115" s="3">
+        <v>5543991173378</v>
+      </c>
     </row>
     <row r="116" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
+      <c r="A116" s="16" t="s">
+        <v>309</v>
+      </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="A117" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B117" s="3">
+        <v>5543984630879</v>
+      </c>
+      <c r="C117" s="3">
+        <v>5543984860327</v>
+      </c>
     </row>
     <row r="118" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
+      <c r="A118" s="16" t="s">
+        <v>311</v>
+      </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="16"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="A119" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B119" s="3">
+        <v>5543999698231</v>
+      </c>
+      <c r="C119" s="3">
+        <v>5543999017656</v>
+      </c>
     </row>
     <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" s="3">
+        <v>5543984065436</v>
+      </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="16"/>
+      <c r="A121" s="16" t="s">
+        <v>314</v>
+      </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="16"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122" s="3">
+        <v>5543991122407</v>
+      </c>
+      <c r="C122" s="3">
+        <v>5543988446207</v>
+      </c>
     </row>
     <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="16"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" s="3">
+        <v>5543996109368</v>
+      </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="16"/>
+      <c r="A124" s="16" t="s">
+        <v>317</v>
+      </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
+      <c r="A125" s="16" t="s">
+        <v>318</v>
+      </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
-      <c r="B126" s="3"/>
+      <c r="A126" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B126" s="3">
+        <v>5543991728001</v>
+      </c>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="16"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="A127" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B127" s="3">
+        <v>5543991807053</v>
+      </c>
+      <c r="C127" s="3">
+        <v>5543991807053</v>
+      </c>
     </row>
     <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="16"/>
+      <c r="A128" s="16" t="s">
+        <v>321</v>
+      </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="16"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B129" s="3">
+        <v>5543991023822</v>
+      </c>
+      <c r="C129" s="3">
+        <v>5543991491081</v>
+      </c>
     </row>
     <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B130" s="3">
+        <v>5544991640483</v>
+      </c>
+      <c r="C130" s="3">
+        <v>5543991298647</v>
+      </c>
     </row>
     <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
+      <c r="A131" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="B131" s="17"/>
-      <c r="C131" s="3"/>
+      <c r="C131" s="3">
+        <v>5543996263160</v>
+      </c>
     </row>
     <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="16"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B132" s="3">
+        <v>5543999294889</v>
+      </c>
+      <c r="C132" s="3">
+        <v>5543996650375</v>
+      </c>
     </row>
     <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="16"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B133" s="3">
+        <v>5543996169460</v>
+      </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="16"/>
-      <c r="B134" s="3"/>
+      <c r="A134" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="B134" s="3">
+        <v>5543996040304</v>
+      </c>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="16"/>
+      <c r="A135" s="16" t="s">
+        <v>328</v>
+      </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="16"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B136" s="3">
+        <v>5543991518649</v>
+      </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
+      <c r="A137" s="16" t="s">
+        <v>330</v>
+      </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
+      <c r="A138" s="16" t="s">
+        <v>331</v>
+      </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B139" s="3">
+        <v>5543998441883</v>
+      </c>
+      <c r="C139" s="3">
+        <v>5543996333432</v>
+      </c>
     </row>
     <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="16"/>
+      <c r="A140" s="16" t="s">
+        <v>333</v>
+      </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B141" s="3">
+        <v>5543991885178</v>
+      </c>
+      <c r="C141" s="3">
+        <v>5543991975272</v>
+      </c>
     </row>
     <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="16"/>
+      <c r="A142" s="16" t="s">
+        <v>335</v>
+      </c>
       <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="C142" s="3">
+        <v>5543984158064</v>
+      </c>
     </row>
     <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
+      <c r="A143" s="16" t="s">
+        <v>336</v>
+      </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="16"/>
+      <c r="A144" s="16" t="s">
+        <v>337</v>
+      </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="16"/>
+      <c r="A145" s="16" t="s">
+        <v>338</v>
+      </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="16"/>
+      <c r="A146" s="16" t="s">
+        <v>339</v>
+      </c>
       <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+      <c r="C146" s="3">
+        <v>5543996206655</v>
+      </c>
     </row>
     <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="16"/>
+      <c r="A147" s="16" t="s">
+        <v>340</v>
+      </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="16"/>
+      <c r="A148" s="16" t="s">
+        <v>341</v>
+      </c>
       <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
+      <c r="C148" s="3">
+        <v>5543991806584</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="16"/>
+      <c r="A149" s="16" t="s">
+        <v>342</v>
+      </c>
       <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="C149" s="3">
+        <v>5543996632874</v>
+      </c>
     </row>
     <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="16"/>
+      <c r="A150" s="16" t="s">
+        <v>343</v>
+      </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="16"/>
+      <c r="A151" s="16" t="s">
+        <v>344</v>
+      </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="16"/>
-      <c r="B152" s="3"/>
+      <c r="A152" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B152" s="3">
+        <v>5543996489804</v>
+      </c>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="16"/>
+      <c r="A153" s="16" t="s">
+        <v>346</v>
+      </c>
       <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="C153" s="3">
+        <v>5543998266453</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="16"/>
+      <c r="A154" s="16" t="s">
+        <v>347</v>
+      </c>
       <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="C154" s="3">
+        <v>5543991762021</v>
+      </c>
     </row>
     <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="16"/>
-      <c r="B155" s="3"/>
+      <c r="A155" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="B155" s="3">
+        <v>5543991564556</v>
+      </c>
       <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="16"/>
-      <c r="B156" s="3"/>
+      <c r="A156" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B156" s="3">
+        <v>5543988638984</v>
+      </c>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="16"/>
-      <c r="B157" s="3"/>
+      <c r="A157" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="3">
+        <v>5543988495082</v>
+      </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="16"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
+      <c r="A158" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="3">
+        <v>5543988633962</v>
+      </c>
+      <c r="C158" s="3">
+        <v>5543988504517</v>
+      </c>
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="16"/>
+      <c r="A159" s="16" t="s">
+        <v>5</v>
+      </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="16"/>
-      <c r="B160" s="3"/>
+      <c r="A160" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="3">
+        <v>5543999209827</v>
+      </c>
       <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="16"/>
-      <c r="B161" s="3"/>
+      <c r="A161" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="3">
+        <v>5543991331063</v>
+      </c>
       <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="16"/>
+      <c r="A162" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="16"/>
+      <c r="A163" s="16" t="s">
+        <v>9</v>
+      </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="16"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
+      <c r="A164" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="3">
+        <v>5543991329882</v>
+      </c>
+      <c r="C164" s="3">
+        <v>5543991679611</v>
+      </c>
     </row>
     <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="16"/>
+      <c r="A165" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="16"/>
-      <c r="B166" s="3"/>
+      <c r="A166" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="3">
+        <v>5543998158746</v>
+      </c>
       <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="16"/>
+      <c r="A167" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="16"/>
-      <c r="B168" s="3"/>
+      <c r="A168" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168" s="3">
+        <v>5543974009659</v>
+      </c>
       <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="16"/>
+      <c r="A169" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="16"/>
+      <c r="A170" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
+      <c r="C170" s="3">
+        <v>5543996964001</v>
+      </c>
     </row>
     <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="16"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
+      <c r="A171" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="3">
+        <v>5543988638401</v>
+      </c>
+      <c r="C171" s="3">
+        <v>5543984886857</v>
+      </c>
     </row>
     <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="16"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
+      <c r="A172" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B172" s="3">
+        <v>5543991549637</v>
+      </c>
+      <c r="C172" s="3">
+        <v>5543991228182</v>
+      </c>
     </row>
     <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="16"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
+      <c r="A173" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" s="3">
+        <v>5543988554382</v>
+      </c>
+      <c r="C173" s="3">
+        <v>5543988554382</v>
+      </c>
     </row>
     <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="16"/>
-      <c r="B174" s="3"/>
+      <c r="A174" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B174" s="3">
+        <v>5543996832471</v>
+      </c>
       <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="16"/>
+      <c r="A175" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="16"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
+      <c r="A176" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B176" s="3">
+        <v>5543988593058</v>
+      </c>
+      <c r="C176" s="3">
+        <v>5543988061634</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="16"/>
+      <c r="A177" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
+      <c r="C177" s="3">
+        <v>5543999079773</v>
+      </c>
     </row>
     <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="16"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
+      <c r="A178" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178" s="3">
+        <v>5543984595834</v>
+      </c>
+      <c r="C178" s="3">
+        <v>5543984594914</v>
+      </c>
     </row>
     <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="16"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
+      <c r="A179" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B179" s="3">
+        <v>5543998256490</v>
+      </c>
+      <c r="C179" s="3">
+        <v>5543999158705</v>
+      </c>
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="16"/>
+      <c r="A180" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="16"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="3"/>
+      <c r="A181" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B181" s="18">
+        <v>5543991170389</v>
+      </c>
+      <c r="C181" s="3">
+        <v>5543984024530</v>
+      </c>
     </row>
     <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="16"/>
-      <c r="B183" s="3"/>
+      <c r="A183" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B183" s="3">
+        <v>5543984145161</v>
+      </c>
       <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="16"/>
+      <c r="A184" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="16"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
+      <c r="A185" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B185" s="3">
+        <v>5543999110477</v>
+      </c>
+      <c r="C185" s="3">
+        <v>5543999897427</v>
+      </c>
     </row>
     <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="16"/>
+      <c r="A186" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
+      <c r="C186" s="3">
+        <v>5543998123019</v>
+      </c>
     </row>
     <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="16"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
+      <c r="A187" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B187" s="3">
+        <v>5543996838950</v>
+      </c>
+      <c r="C187" s="3">
+        <v>5543996851519</v>
+      </c>
     </row>
     <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="16"/>
+      <c r="A188" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="16"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
+      <c r="A189" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B189" s="3">
+        <v>5543991585952</v>
+      </c>
+      <c r="C189" s="3">
+        <v>5543988454510</v>
+      </c>
     </row>
     <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="16"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
+      <c r="A190" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B190" s="3">
+        <v>5543998741916</v>
+      </c>
+      <c r="C190" s="3">
+        <v>5543998361410</v>
+      </c>
     </row>
     <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="16"/>
+      <c r="A191" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
+      <c r="C191" s="3">
+        <v>5543999615312</v>
+      </c>
     </row>
     <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="16"/>
+      <c r="A192" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="16"/>
+      <c r="A193" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
+      <c r="C193" s="3">
+        <v>5543984179599</v>
+      </c>
     </row>
     <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="16"/>
-      <c r="B194" s="3"/>
+      <c r="A194" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B194" s="3">
+        <v>5543984470827</v>
+      </c>
       <c r="C194" s="3"/>
     </row>
     <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="16"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="3"/>
+      <c r="A195" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B195" s="18">
+        <v>5543991703235</v>
+      </c>
+      <c r="C195" s="3">
+        <v>5543984852634</v>
+      </c>
     </row>
     <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="16"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
+      <c r="A196" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B196" s="3">
+        <v>5543996551028</v>
+      </c>
+      <c r="C196" s="3">
+        <v>5543998321625</v>
+      </c>
     </row>
     <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="16"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
+      <c r="A197" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B197" s="3">
+        <v>5543998034405</v>
+      </c>
+      <c r="C197" s="3">
+        <v>5543998014271</v>
+      </c>
     </row>
     <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="16"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
+      <c r="A198" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B198" s="3">
+        <v>5543996644226</v>
+      </c>
+      <c r="C198" s="3">
+        <v>5543996703335</v>
+      </c>
     </row>
     <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="16"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
+      <c r="A199" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B199" s="3">
+        <v>5543991005062</v>
+      </c>
+      <c r="C199" s="3">
+        <v>5543991539271</v>
+      </c>
     </row>
     <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="16"/>
-      <c r="B200" s="3"/>
+      <c r="A200" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B200" s="3">
+        <v>5543991859089</v>
+      </c>
       <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="16"/>
+      <c r="A201" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
+      <c r="C201" s="3">
+        <v>5543999056438</v>
+      </c>
     </row>
     <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="16"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
+      <c r="A202" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B202" s="3">
+        <v>5543991502738</v>
+      </c>
+      <c r="C202" s="3">
+        <v>5543991362490</v>
+      </c>
     </row>
     <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="16"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
+      <c r="A203" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B203" s="3">
+        <v>5543999198557</v>
+      </c>
+      <c r="C203" s="3">
+        <v>5543998086802</v>
+      </c>
     </row>
     <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="16"/>
-      <c r="B204" s="3"/>
+      <c r="A204" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204" s="3">
+        <v>5543998692851</v>
+      </c>
       <c r="C204" s="3"/>
     </row>
     <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="16"/>
+      <c r="A205" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
     <row r="206" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="16"/>
-      <c r="B206" s="3"/>
+      <c r="A206" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B206" s="3">
+        <v>5543988198564</v>
+      </c>
       <c r="C206" s="3"/>
     </row>
     <row r="207" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="16"/>
+      <c r="A207" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
     </row>
     <row r="208" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="16"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
+      <c r="A208" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B208" s="3">
+        <v>5543991694346</v>
+      </c>
+      <c r="C208" s="3">
+        <v>5543999819390</v>
+      </c>
     </row>
     <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="16"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
+      <c r="A209" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B209" s="3">
+        <v>5543988681467</v>
+      </c>
+      <c r="C209" s="3">
+        <v>5543996621820</v>
+      </c>
     </row>
     <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="16"/>
+      <c r="A210" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
+      <c r="C210" s="3">
+        <v>5543999543922</v>
+      </c>
     </row>
     <row r="211" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="16"/>
+      <c r="A211" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
     <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="16"/>
-      <c r="B212" s="3"/>
+      <c r="A212" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B212" s="3">
+        <v>5543991641068</v>
+      </c>
       <c r="C212" s="3"/>
     </row>
     <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="16"/>
+      <c r="A213" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
+      <c r="C213" s="3">
+        <v>5543984533094</v>
+      </c>
     </row>
     <row r="214" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="16"/>
+      <c r="A214" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
     <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="16"/>
-      <c r="B215" s="3"/>
+      <c r="A215" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B215" s="3">
+        <v>5543999179115</v>
+      </c>
       <c r="C215" s="3"/>
     </row>
     <row r="216" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="16"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
+      <c r="A216" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B216" s="3">
+        <v>5543996153560</v>
+      </c>
+      <c r="C216" s="3">
+        <v>5543996190379</v>
+      </c>
     </row>
     <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="16"/>
+      <c r="A217" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
+      <c r="C217" s="3">
+        <v>5543996496539</v>
+      </c>
     </row>
     <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="16"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
+      <c r="A218" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B218" s="3">
+        <v>5543988251159</v>
+      </c>
+      <c r="C218" s="3">
+        <v>5543988086895</v>
+      </c>
     </row>
     <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="16"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
+      <c r="A219" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B219" s="3">
+        <v>5543996943548</v>
+      </c>
+      <c r="C219" s="3">
+        <v>5543999008681</v>
+      </c>
     </row>
     <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="16"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
+      <c r="A220" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B220" s="3">
+        <v>5541996540688</v>
+      </c>
+      <c r="C220" s="3">
+        <v>5541996492048</v>
+      </c>
     </row>
     <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="16"/>
+      <c r="A221" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
+      <c r="C221" s="3">
+        <v>5543998732842</v>
+      </c>
     </row>
     <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="16"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
+      <c r="A222" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B222" s="3">
+        <v>5543998203963</v>
+      </c>
+      <c r="C222" s="3">
+        <v>5543998076194</v>
+      </c>
     </row>
     <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="19"/>
+      <c r="A223" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="B223" s="20"/>
       <c r="C223" s="20"/>
     </row>
     <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="19"/>
-      <c r="B224" s="20"/>
-      <c r="C224" s="20"/>
+      <c r="A224" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B224" s="20">
+        <v>5543988622639</v>
+      </c>
+      <c r="C224" s="20">
+        <v>5543996644231</v>
+      </c>
     </row>
     <row r="225" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="19"/>
+      <c r="A225" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="B225" s="17"/>
-      <c r="C225" s="20"/>
+      <c r="C225" s="20">
+        <v>5543998337619</v>
+      </c>
     </row>
     <row r="226" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="19"/>
+      <c r="A226" s="19" t="s">
+        <v>71</v>
+      </c>
       <c r="B226" s="20"/>
-      <c r="C226" s="20"/>
+      <c r="C226" s="20">
+        <v>5543991157932</v>
+      </c>
     </row>
     <row r="227" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="19"/>
+      <c r="A227" s="19" t="s">
+        <v>72</v>
+      </c>
       <c r="B227" s="20"/>
-      <c r="C227" s="20"/>
+      <c r="C227" s="20">
+        <v>5543991562054</v>
+      </c>
     </row>
     <row r="228" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="19"/>
-      <c r="B228" s="20"/>
-      <c r="C228" s="20"/>
+      <c r="A228" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B228" s="20">
+        <v>5543999535730</v>
+      </c>
+      <c r="C228" s="20">
+        <v>5543991555189</v>
+      </c>
     </row>
     <row r="229" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="19"/>
+      <c r="A229" s="19" t="s">
+        <v>74</v>
+      </c>
       <c r="B229" s="20"/>
       <c r="C229" s="20"/>
     </row>
     <row r="230" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="19"/>
+      <c r="A230" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="B230" s="20"/>
-      <c r="C230" s="20"/>
+      <c r="C230" s="20">
+        <v>5543996172896</v>
+      </c>
     </row>
     <row r="231" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="19"/>
-      <c r="B231" s="20"/>
-      <c r="C231" s="20"/>
+      <c r="A231" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B231" s="20">
+        <v>5543999652247</v>
+      </c>
+      <c r="C231" s="20">
+        <v>5543996394417</v>
+      </c>
     </row>
     <row r="232" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="19"/>
-      <c r="B232" s="20"/>
+      <c r="A232" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B232" s="20">
+        <v>5543991779301</v>
+      </c>
       <c r="C232" s="20"/>
     </row>
     <row r="233" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="19"/>
-      <c r="B233" s="20"/>
-      <c r="C233" s="20"/>
+      <c r="A233" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B233" s="20">
+        <v>5543996396965</v>
+      </c>
+      <c r="C233" s="20">
+        <v>5543996832404</v>
+      </c>
     </row>
     <row r="234" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="19"/>
+      <c r="A234" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="B234" s="20"/>
-      <c r="C234" s="20"/>
+      <c r="C234" s="20">
+        <v>5543996539302</v>
+      </c>
     </row>
     <row r="235" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="19"/>
-      <c r="B235" s="20"/>
+      <c r="A235" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B235" s="20">
+        <v>5543999853823</v>
+      </c>
       <c r="C235" s="20"/>
     </row>
     <row r="236" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="19"/>
-      <c r="B236" s="20"/>
-      <c r="C236" s="20"/>
+      <c r="A236" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B236" s="20">
+        <v>5543998152528</v>
+      </c>
+      <c r="C236" s="20">
+        <v>5543998039025</v>
+      </c>
     </row>
     <row r="237" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="19"/>
+      <c r="A237" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="B237" s="20"/>
       <c r="C237" s="20"/>
     </row>
     <row r="238" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="19"/>
+      <c r="A238" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="B238" s="20"/>
-      <c r="C238" s="20"/>
+      <c r="C238" s="20">
+        <v>5543998392959</v>
+      </c>
     </row>
     <row r="239" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="19"/>
-      <c r="B239" s="20"/>
+      <c r="A239" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B239" s="20">
+        <v>5543999687260</v>
+      </c>
       <c r="C239" s="20"/>
     </row>
     <row r="240" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="19"/>
+      <c r="A240" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="B240" s="20"/>
-      <c r="C240" s="20"/>
+      <c r="C240" s="20">
+        <v>5543984933455</v>
+      </c>
     </row>
     <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="19"/>
-      <c r="B241" s="20"/>
-      <c r="C241" s="20"/>
+      <c r="A241" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B241" s="20">
+        <v>5543988678491</v>
+      </c>
+      <c r="C241" s="20">
+        <v>5543996431967</v>
+      </c>
     </row>
     <row r="242" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="19"/>
-      <c r="B242" s="20"/>
+      <c r="A242" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B242" s="20">
+        <v>5543998488484</v>
+      </c>
       <c r="C242" s="20"/>
     </row>
     <row r="243" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="19"/>
-      <c r="B243" s="20"/>
+      <c r="A243" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B243" s="20">
+        <v>5543999691025</v>
+      </c>
       <c r="C243" s="20"/>
     </row>
     <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="19"/>
-      <c r="B244" s="20"/>
-      <c r="C244" s="20"/>
+      <c r="A244" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B244" s="20">
+        <v>5543998644491</v>
+      </c>
+      <c r="C244" s="20">
+        <v>5543991145756</v>
+      </c>
     </row>
     <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="19"/>
+      <c r="A245" s="19" t="s">
+        <v>90</v>
+      </c>
       <c r="B245" s="20"/>
-      <c r="C245" s="20"/>
+      <c r="C245" s="20">
+        <v>5543996688924</v>
+      </c>
     </row>
     <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="19"/>
-      <c r="B246" s="20"/>
-      <c r="C246" s="20"/>
+      <c r="A246" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B246" s="20">
+        <v>5543988538329</v>
+      </c>
+      <c r="C246" s="20">
+        <v>5543988265339</v>
+      </c>
     </row>
     <row r="247" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="19"/>
-      <c r="B247" s="20"/>
-      <c r="C247" s="20"/>
+      <c r="A247" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B247" s="20">
+        <v>5543996197558</v>
+      </c>
+      <c r="C247" s="20">
+        <v>5543984230661</v>
+      </c>
     </row>
     <row r="248" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="19"/>
+      <c r="A248" s="19" t="s">
+        <v>93</v>
+      </c>
       <c r="B248" s="20"/>
-      <c r="C248" s="20"/>
+      <c r="C248" s="20">
+        <v>5543996227150</v>
+      </c>
     </row>
     <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="19"/>
+      <c r="A249" s="19" t="s">
+        <v>94</v>
+      </c>
       <c r="B249" s="20"/>
-      <c r="C249" s="20"/>
+      <c r="C249" s="20">
+        <v>5511950511974</v>
+      </c>
     </row>
     <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="19"/>
-      <c r="B250" s="20"/>
+      <c r="A250" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B250" s="20">
+        <v>5543999691332</v>
+      </c>
       <c r="C250" s="20"/>
     </row>
     <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="19"/>
-      <c r="B251" s="20"/>
-      <c r="C251" s="20"/>
+      <c r="A251" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B251" s="20">
+        <v>5543999737024</v>
+      </c>
+      <c r="C251" s="20">
+        <v>5543999676238</v>
+      </c>
     </row>
     <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="19"/>
-      <c r="B252" s="20"/>
-      <c r="C252" s="20"/>
+      <c r="A252" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B252" s="20">
+        <v>5543991193203</v>
+      </c>
+      <c r="C252" s="20">
+        <v>5543988242083</v>
+      </c>
     </row>
     <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="19"/>
+      <c r="A253" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="B253" s="20"/>
-      <c r="C253" s="20"/>
+      <c r="C253" s="20">
+        <v>5543996606102</v>
+      </c>
     </row>
     <row r="254" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="22"/>
-      <c r="B254" s="23"/>
-      <c r="C254" s="23"/>
+      <c r="A254" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B254" s="23">
+        <v>5543999284828</v>
+      </c>
+      <c r="C254" s="23">
+        <v>5543998502569</v>
+      </c>
     </row>
     <row r="255" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="22"/>
-      <c r="B255" s="23"/>
-      <c r="C255" s="23"/>
+      <c r="A255" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B255" s="23">
+        <v>5543991766160</v>
+      </c>
+      <c r="C255" s="23">
+        <v>5543991837325</v>
+      </c>
     </row>
     <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="22"/>
-      <c r="B256" s="23"/>
-      <c r="C256" s="23"/>
+      <c r="A256" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B256" s="23">
+        <v>5543991957793</v>
+      </c>
+      <c r="C256" s="23">
+        <v>5543991265490</v>
+      </c>
     </row>
     <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="22"/>
+      <c r="A257" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="B257" s="23"/>
-      <c r="C257" s="23"/>
+      <c r="C257" s="23">
+        <v>5543996260616</v>
+      </c>
     </row>
     <row r="258" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="22"/>
-      <c r="B258" s="23"/>
-      <c r="C258" s="23"/>
+      <c r="A258" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B258" s="23">
+        <v>5543996319578</v>
+      </c>
+      <c r="C258" s="23">
+        <v>5543996638799</v>
+      </c>
     </row>
     <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="22"/>
-      <c r="B259" s="23"/>
+      <c r="A259" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B259" s="23">
+        <v>5543999623642</v>
+      </c>
       <c r="C259" s="23"/>
     </row>
     <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="22"/>
-      <c r="B260" s="23"/>
-      <c r="C260" s="23"/>
+      <c r="A260" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B260" s="23">
+        <v>5543996746972</v>
+      </c>
+      <c r="C260" s="23">
+        <v>5543991586632</v>
+      </c>
     </row>
     <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="22"/>
-      <c r="B261" s="23"/>
-      <c r="C261" s="23"/>
+      <c r="A261" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B261" s="23">
+        <v>5543988537929</v>
+      </c>
+      <c r="C261" s="23">
+        <v>5543988557241</v>
+      </c>
     </row>
     <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="22"/>
-      <c r="B262" s="23"/>
-      <c r="C262" s="23"/>
+      <c r="A262" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B262" s="23">
+        <v>5543996515635</v>
+      </c>
+      <c r="C262" s="23">
+        <v>5543998136586</v>
+      </c>
     </row>
     <row r="263" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="22"/>
-      <c r="B263" s="23"/>
+      <c r="A263" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B263" s="23">
+        <v>5543988124976</v>
+      </c>
       <c r="C263" s="23"/>
     </row>
     <row r="264" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="22"/>
-      <c r="B264" s="23"/>
+      <c r="A264" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B264" s="23">
+        <v>5543988565256</v>
+      </c>
       <c r="C264" s="23"/>
     </row>
     <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="22"/>
-      <c r="B265" s="23"/>
-      <c r="C265" s="23"/>
+      <c r="A265" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B265" s="23">
+        <v>5543974009147</v>
+      </c>
+      <c r="C265" s="23">
+        <v>5543988000055</v>
+      </c>
     </row>
     <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="22"/>
-      <c r="B266" s="23"/>
+      <c r="A266" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B266" s="23">
+        <v>5543988664448</v>
+      </c>
       <c r="C266" s="23"/>
     </row>
     <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="22"/>
+      <c r="A267" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="B267" s="23"/>
       <c r="C267" s="23"/>
     </row>
     <row r="268" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="22"/>
+      <c r="A268" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="B268" s="23"/>
       <c r="C268" s="23"/>
     </row>
     <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="22"/>
+      <c r="A269" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="B269" s="23"/>
-      <c r="C269" s="23"/>
+      <c r="C269" s="23">
+        <v>5543996124089</v>
+      </c>
     </row>
     <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="22"/>
+      <c r="A270" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="B270" s="23"/>
       <c r="C270" s="23"/>
     </row>
     <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="22"/>
+      <c r="A271" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="B271" s="23"/>
       <c r="C271" s="23"/>
     </row>
     <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="24"/>
+      <c r="A272" s="24" t="s">
+        <v>117</v>
+      </c>
       <c r="B272" s="23"/>
-      <c r="C272" s="23"/>
+      <c r="C272" s="23">
+        <v>5543991845008</v>
+      </c>
     </row>
     <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="22"/>
-      <c r="B273" s="23"/>
-      <c r="C273" s="23"/>
+      <c r="A273" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B273" s="23">
+        <v>5543999073856</v>
+      </c>
+      <c r="C273" s="23">
+        <v>5543996261461</v>
+      </c>
     </row>
     <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="22"/>
-      <c r="B274" s="23"/>
+      <c r="A274" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B274" s="23">
+        <v>5543999331522</v>
+      </c>
       <c r="C274" s="23"/>
     </row>
     <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="22"/>
-      <c r="B275" s="23"/>
+      <c r="A275" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B275" s="23">
+        <v>5543991341005</v>
+      </c>
       <c r="C275" s="23"/>
     </row>
     <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="22"/>
-      <c r="B276" s="23"/>
-      <c r="C276" s="23"/>
+      <c r="A276" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B276" s="23">
+        <v>5543984762582</v>
+      </c>
+      <c r="C276" s="23">
+        <v>5514991232263</v>
+      </c>
     </row>
     <row r="277" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="22"/>
-      <c r="B277" s="23"/>
-      <c r="C277" s="23"/>
+      <c r="A277" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B277" s="23">
+        <v>5541997019444</v>
+      </c>
+      <c r="C277" s="23">
+        <v>5543999112652</v>
+      </c>
     </row>
     <row r="278" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="22"/>
-      <c r="B278" s="23"/>
-      <c r="C278" s="23"/>
+      <c r="A278" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B278" s="23">
+        <v>5543991795900</v>
+      </c>
+      <c r="C278" s="23">
+        <v>5543991165572</v>
+      </c>
     </row>
     <row r="279" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="22"/>
-      <c r="B279" s="23"/>
-      <c r="C279" s="23"/>
+      <c r="A279" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B279" s="23">
+        <v>5543996589331</v>
+      </c>
+      <c r="C279" s="23">
+        <v>5543996105516</v>
+      </c>
     </row>
     <row r="280" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="22"/>
-      <c r="B280" s="23"/>
+      <c r="A280" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B280" s="23">
+        <v>5543999549181</v>
+      </c>
       <c r="C280" s="23"/>
     </row>
     <row r="281" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="22"/>
+      <c r="A281" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="B281" s="23"/>
-      <c r="C281" s="23"/>
+      <c r="C281" s="23">
+        <v>5543999601844</v>
+      </c>
     </row>
     <row r="282" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="16"/>
-      <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
+      <c r="A282" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B282" s="3">
+        <v>5543998440710</v>
+      </c>
+      <c r="C282" s="3">
+        <v>5543996994696</v>
+      </c>
     </row>
     <row r="283" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="16"/>
+      <c r="A283" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
     </row>
     <row r="284" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="16"/>
-      <c r="B284" s="3"/>
-      <c r="C284" s="3"/>
+      <c r="A284" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B284" s="3">
+        <v>5543999867494</v>
+      </c>
+      <c r="C284" s="3">
+        <v>5543996549872</v>
+      </c>
     </row>
     <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="16"/>
-      <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
+      <c r="A285" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B285" s="3">
+        <v>5543998000937</v>
+      </c>
+      <c r="C285" s="3">
+        <v>5543996202729</v>
+      </c>
     </row>
     <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="16"/>
-      <c r="B286" s="3"/>
+      <c r="A286" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B286" s="3">
+        <v>5543988636929</v>
+      </c>
       <c r="C286" s="3"/>
     </row>
     <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="16"/>
+      <c r="A287" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
     </row>
     <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="16"/>
-      <c r="B288" s="3"/>
-      <c r="C288" s="3"/>
+      <c r="A288" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B288" s="3">
+        <v>5543988554353</v>
+      </c>
+      <c r="C288" s="3">
+        <v>5543988566222</v>
+      </c>
     </row>
     <row r="289" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="16"/>
-      <c r="B289" s="3"/>
+      <c r="A289" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B289" s="3">
+        <v>5543984120948</v>
+      </c>
       <c r="C289" s="3"/>
     </row>
     <row r="290" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="16"/>
+      <c r="A290" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
     </row>
     <row r="291" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="16"/>
-      <c r="B291" s="3"/>
-      <c r="C291" s="3"/>
+      <c r="A291" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B291" s="3">
+        <v>5543984525547</v>
+      </c>
+      <c r="C291" s="3">
+        <v>5543984774037</v>
+      </c>
     </row>
     <row r="292" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="16"/>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
+      <c r="A292" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B292" s="3">
+        <v>5543999791266</v>
+      </c>
+      <c r="C292" s="3">
+        <v>5543996645822</v>
+      </c>
     </row>
     <row r="293" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="16"/>
-      <c r="B293" s="3"/>
-      <c r="C293" s="3"/>
+      <c r="A293" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B293" s="3">
+        <v>5543988303673</v>
+      </c>
+      <c r="C293" s="3">
+        <v>5543991233873</v>
+      </c>
     </row>
     <row r="294" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="16"/>
-      <c r="B294" s="3"/>
-      <c r="C294" s="3"/>
+      <c r="A294" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B294" s="3">
+        <v>5543998628077</v>
+      </c>
+      <c r="C294" s="3">
+        <v>5543991282535</v>
+      </c>
     </row>
     <row r="295" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="16"/>
-      <c r="B295" s="3"/>
-      <c r="C295" s="3"/>
+      <c r="A295" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B295" s="3">
+        <v>5511949987693</v>
+      </c>
+      <c r="C295" s="3">
+        <v>5511964284086</v>
+      </c>
     </row>
     <row r="296" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="16"/>
-      <c r="B296" s="3"/>
-      <c r="C296" s="3"/>
+      <c r="A296" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B296" s="3">
+        <v>5543999334746</v>
+      </c>
+      <c r="C296" s="3">
+        <v>5543996901599</v>
+      </c>
     </row>
     <row r="297" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="16"/>
-      <c r="B297" s="3"/>
-      <c r="C297" s="3"/>
+      <c r="A297" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B297" s="3">
+        <v>5543988623448</v>
+      </c>
+      <c r="C297" s="3">
+        <v>5543988510992</v>
+      </c>
     </row>
     <row r="298" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="16"/>
+      <c r="A298" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
     </row>
     <row r="299" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="16"/>
-      <c r="B299" s="3"/>
+      <c r="A299" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B299" s="3">
+        <v>5543999736898</v>
+      </c>
       <c r="C299" s="3"/>
     </row>
     <row r="300" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="16"/>
-      <c r="B300" s="3"/>
-      <c r="C300" s="3"/>
+      <c r="A300" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B300" s="3">
+        <v>5543984214732</v>
+      </c>
+      <c r="C300" s="3">
+        <v>5543984852904</v>
+      </c>
     </row>
     <row r="301" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="16"/>
+      <c r="A301" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="B301" s="3"/>
-      <c r="C301" s="3"/>
+      <c r="C301" s="3">
+        <v>5543998006151</v>
+      </c>
     </row>
     <row r="302" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="16"/>
-      <c r="B302" s="3"/>
+      <c r="A302" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B302" s="3">
+        <v>5543991779663</v>
+      </c>
       <c r="C302" s="3"/>
     </row>
     <row r="303" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="16"/>
-      <c r="B303" s="3"/>
-      <c r="C303" s="3"/>
+      <c r="A303" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B303" s="3">
+        <v>5543999904074</v>
+      </c>
+      <c r="C303" s="3">
+        <v>5543996408967</v>
+      </c>
     </row>
     <row r="304" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="16"/>
+      <c r="A304" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="B304" s="3"/>
-      <c r="C304" s="3"/>
+      <c r="C304" s="3">
+        <v>5543998300843</v>
+      </c>
     </row>
     <row r="305" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="16"/>
-      <c r="B305" s="3"/>
-      <c r="C305" s="3"/>
+      <c r="A305" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B305" s="3">
+        <v>5543998154894</v>
+      </c>
+      <c r="C305" s="3">
+        <v>5543996552317</v>
+      </c>
     </row>
     <row r="306" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="16"/>
-      <c r="B306" s="3"/>
+      <c r="A306" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B306" s="3">
+        <v>5543996616940</v>
+      </c>
       <c r="C306" s="3"/>
     </row>
     <row r="307" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="16"/>
-      <c r="B307" s="3"/>
-      <c r="C307" s="3"/>
+      <c r="A307" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B307" s="3">
+        <v>5543988312198</v>
+      </c>
+      <c r="C307" s="3">
+        <v>5543999037295</v>
+      </c>
     </row>
     <row r="308" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="16"/>
-      <c r="B308" s="3"/>
-      <c r="C308" s="3"/>
+      <c r="A308" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B308" s="3">
+        <v>5543991725858</v>
+      </c>
+      <c r="C308" s="3">
+        <v>5543991746514</v>
+      </c>
     </row>
     <row r="309" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="16"/>
-      <c r="B309" s="3"/>
-      <c r="C309" s="3"/>
+      <c r="A309" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B309" s="3">
+        <v>5543984168086</v>
+      </c>
+      <c r="C309" s="3">
+        <v>5543984921856</v>
+      </c>
     </row>
     <row r="310" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="16"/>
-      <c r="B310" s="3"/>
-      <c r="C310" s="3"/>
+      <c r="A310" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B310" s="3">
+        <v>5543984855419</v>
+      </c>
+      <c r="C310" s="3">
+        <v>5543984071742</v>
+      </c>
     </row>
     <row r="311" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="16"/>
-      <c r="B311" s="3"/>
-      <c r="C311" s="3"/>
+      <c r="A311" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B311" s="3">
+        <v>5543991752218</v>
+      </c>
+      <c r="C311" s="3">
+        <v>5543988547039</v>
+      </c>
     </row>
     <row r="312" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="16"/>
-      <c r="B312" s="3"/>
-      <c r="C312" s="3"/>
+      <c r="A312" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B312" s="3">
+        <v>5543991347415</v>
+      </c>
+      <c r="C312" s="3">
+        <v>5543999077298</v>
+      </c>
     </row>
     <row r="313" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="16"/>
-      <c r="B313" s="3"/>
-      <c r="C313" s="3"/>
+      <c r="A313" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B313" s="3">
+        <v>5543991249214</v>
+      </c>
+      <c r="C313" s="3">
+        <v>5543991648812</v>
+      </c>
     </row>
     <row r="314" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="16"/>
-      <c r="B314" s="3"/>
-      <c r="C314" s="3"/>
+      <c r="A314" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B314" s="3">
+        <v>5543991846231</v>
+      </c>
+      <c r="C314" s="3">
+        <v>5514997258450</v>
+      </c>
     </row>
     <row r="315" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="16"/>
-      <c r="B315" s="3"/>
+      <c r="A315" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B315" s="3">
+        <v>5543988622531</v>
+      </c>
       <c r="C315" s="3"/>
     </row>
     <row r="316" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="16"/>
+      <c r="A316" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
     </row>
     <row r="317" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="16"/>
-      <c r="B317" s="3"/>
-      <c r="C317" s="3"/>
+      <c r="A317" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B317" s="3">
+        <v>5543999761383</v>
+      </c>
+      <c r="C317" s="3">
+        <v>5543998591842</v>
+      </c>
     </row>
     <row r="318" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="16"/>
+      <c r="A318" s="16" t="s">
+        <v>163</v>
+      </c>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
     </row>
     <row r="319" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="16"/>
-      <c r="B319" s="3"/>
-      <c r="C319" s="3"/>
+      <c r="A319" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B319" s="3">
+        <v>5543998630180</v>
+      </c>
+      <c r="C319" s="3">
+        <v>5543991938026</v>
+      </c>
     </row>
     <row r="320" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="16"/>
+      <c r="A320" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="B320" s="3"/>
-      <c r="C320" s="3"/>
+      <c r="C320" s="3">
+        <v>5543998004543</v>
+      </c>
     </row>
     <row r="321" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="16"/>
-      <c r="B321" s="3"/>
-      <c r="C321" s="3"/>
+      <c r="A321" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B321" s="3">
+        <v>5543991593026</v>
+      </c>
+      <c r="C321" s="3">
+        <v>5543991519375</v>
+      </c>
     </row>
     <row r="322" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="16"/>
-      <c r="B322" s="3"/>
-      <c r="C322" s="3"/>
+      <c r="A322" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B322" s="3">
+        <v>5543999779473</v>
+      </c>
+      <c r="C322" s="3">
+        <v>5543988557507</v>
+      </c>
     </row>
     <row r="323" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="16"/>
-      <c r="B323" s="3"/>
-      <c r="C323" s="3"/>
+      <c r="A323" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B323" s="3">
+        <v>5543996238925</v>
+      </c>
+      <c r="C323" s="3">
+        <v>5543996658222</v>
+      </c>
     </row>
     <row r="324" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="16"/>
-      <c r="B324" s="3"/>
+      <c r="A324" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B324" s="3">
+        <v>5543996629430</v>
+      </c>
       <c r="C324" s="3"/>
     </row>
     <row r="325" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="16"/>
-      <c r="B325" s="3"/>
-      <c r="C325" s="3"/>
+      <c r="A325" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B325" s="3">
+        <v>5543998696022</v>
+      </c>
+      <c r="C325" s="3">
+        <v>5543999336580</v>
+      </c>
     </row>
     <row r="326" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="16"/>
+      <c r="A326" s="16" t="s">
+        <v>171</v>
+      </c>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
     </row>
     <row r="327" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="16"/>
-      <c r="B327" s="3"/>
+      <c r="A327" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B327" s="3">
+        <v>5543998112886</v>
+      </c>
       <c r="C327" s="3"/>
     </row>
     <row r="328" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="16"/>
+      <c r="A328" s="16" t="s">
+        <v>173</v>
+      </c>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
     </row>
     <row r="329" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="16"/>
+      <c r="A329" s="16" t="s">
+        <v>174</v>
+      </c>
       <c r="B329" s="3"/>
-      <c r="C329" s="3"/>
+      <c r="C329" s="3">
+        <v>5543999119526</v>
+      </c>
     </row>
     <row r="330" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="16"/>
-      <c r="B330" s="3"/>
-      <c r="C330" s="3"/>
+      <c r="A330" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B330" s="3">
+        <v>5543996707164</v>
+      </c>
+      <c r="C330" s="3">
+        <v>5543999178943</v>
+      </c>
     </row>
     <row r="331" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="16"/>
+      <c r="A331" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="B331" s="3"/>
-      <c r="C331" s="3"/>
+      <c r="C331" s="3">
+        <v>5543996048814</v>
+      </c>
     </row>
     <row r="332" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="16"/>
-      <c r="B332" s="3"/>
+      <c r="A332" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B332" s="3">
+        <v>5543991584929</v>
+      </c>
       <c r="C332" s="3"/>
     </row>
     <row r="333" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="16"/>
-      <c r="B333" s="3"/>
-      <c r="C333" s="3"/>
+      <c r="A333" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B333" s="3">
+        <v>5543988631013</v>
+      </c>
+      <c r="C333" s="3">
+        <v>5543988333919</v>
+      </c>
     </row>
     <row r="334" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="16"/>
-      <c r="B334" s="3"/>
-      <c r="C334" s="3"/>
+      <c r="A334" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B334" s="3">
+        <v>5543999091168</v>
+      </c>
+      <c r="C334" s="3">
+        <v>5543998398865</v>
+      </c>
     </row>
     <row r="335" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="16"/>
-      <c r="B335" s="3"/>
-      <c r="C335" s="3"/>
+      <c r="A335" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B335" s="3">
+        <v>5543991848807</v>
+      </c>
+      <c r="C335" s="3">
+        <v>5543998232071</v>
+      </c>
     </row>
     <row r="336" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="16"/>
+      <c r="A336" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="B336" s="3"/>
-      <c r="C336" s="3"/>
+      <c r="C336" s="3">
+        <v>5543991840308</v>
+      </c>
     </row>
     <row r="337" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="16"/>
+      <c r="A337" s="16" t="s">
+        <v>182</v>
+      </c>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
     </row>
     <row r="338" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="16"/>
-      <c r="B338" s="3"/>
-      <c r="C338" s="3"/>
+      <c r="A338" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B338" s="3">
+        <v>5543991153522</v>
+      </c>
+      <c r="C338" s="3">
+        <v>5543999017549</v>
+      </c>
     </row>
     <row r="339" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="16"/>
-      <c r="B339" s="3"/>
-      <c r="C339" s="3"/>
+      <c r="A339" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B339" s="3">
+        <v>5543991702806</v>
+      </c>
+      <c r="C339" s="3">
+        <v>5543991789493</v>
+      </c>
     </row>
     <row r="340" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="16"/>
-      <c r="B340" s="3"/>
-      <c r="C340" s="3"/>
+      <c r="A340" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B340" s="3">
+        <v>5543998030225</v>
+      </c>
+      <c r="C340" s="3">
+        <v>5543992740190</v>
+      </c>
     </row>
     <row r="341" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="16"/>
-      <c r="B341" s="3"/>
-      <c r="C341" s="3"/>
+      <c r="A341" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B341" s="3">
+        <v>5543996100501</v>
+      </c>
+      <c r="C341" s="3">
+        <v>5543998091901</v>
+      </c>
     </row>
     <row r="342" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="16"/>
-      <c r="B342" s="3"/>
-      <c r="C342" s="3"/>
+      <c r="A342" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B342" s="3">
+        <v>5511970274905</v>
+      </c>
+      <c r="C342" s="3">
+        <v>5511984389359</v>
+      </c>
     </row>
     <row r="343" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="16"/>
-      <c r="B343" s="3"/>
-      <c r="C343" s="3"/>
+      <c r="A343" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B343" s="3">
+        <v>5543984926610</v>
+      </c>
+      <c r="C343" s="3">
+        <v>5543991260444</v>
+      </c>
     </row>
     <row r="344" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="16"/>
-      <c r="B344" s="3"/>
-      <c r="C344" s="3"/>
+      <c r="A344" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B344" s="3">
+        <v>5543991017631</v>
+      </c>
+      <c r="C344" s="3">
+        <v>5543984825947</v>
+      </c>
     </row>
     <row r="345" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="16"/>
+      <c r="A345" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
     </row>
     <row r="346" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="16"/>
-      <c r="B346" s="3"/>
-      <c r="C346" s="3"/>
+      <c r="A346" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B346" s="3">
+        <v>5543996722896</v>
+      </c>
+      <c r="C346" s="3">
+        <v>5543996194054</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B347" s="3">
+        <v>5514997391223</v>
+      </c>
+      <c r="C347" s="3">
+        <v>5514997391223</v>
+      </c>
     </row>
     <row r="348" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="16"/>
-      <c r="B348" s="3"/>
+      <c r="A348" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B348" s="3">
+        <v>554384356465</v>
+      </c>
       <c r="C348" s="3"/>
     </row>
     <row r="349" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="16"/>
-      <c r="B349" s="3"/>
+      <c r="A349" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B349" s="3">
+        <v>5543996440402</v>
+      </c>
       <c r="C349" s="3"/>
     </row>
     <row r="364" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
